--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="760" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>result_name</t>
   </si>
@@ -53,6 +53,12 @@
     <t>total</t>
   </si>
   <si>
+    <t>result-document2vec-TF</t>
+  </si>
+  <si>
+    <t>result-document2vec-TFIDF</t>
+  </si>
+  <si>
     <t>result-CitationNetwork-1st-vec</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>result-CitationContext2Document-TF</t>
   </si>
   <si>
+    <t>result-document2vec-Para2vec</t>
+  </si>
+  <si>
     <t>result-CitationNetworkPlusCocitedNetwork-vec</t>
   </si>
   <si>
@@ -86,53 +95,59 @@
     <t>result-CocitingNetwork-vec</t>
   </si>
   <si>
+    <t>result-Goods-Based-Quality-vec</t>
+  </si>
+  <si>
+    <t>result-Customer-Based-Quality-vec</t>
+  </si>
+  <si>
+    <t>result-CitationNetwork-2nd-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-TFIDF-vec</t>
+  </si>
+  <si>
+    <t>result-Customer-Based-Balance-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-Word2vec-vec</t>
+  </si>
+  <si>
+    <t>result-Goods-Based-Quantity-vec</t>
+  </si>
+  <si>
+    <t>result-document2vec-Word2vec</t>
+  </si>
+  <si>
+    <t>result-CocitedNetwork-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-Para2vec-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext-DocumentSimilarityNetwork-target-vec</t>
+  </si>
+  <si>
     <t>result-CitationContext-DocumentSimilarityNetwork-owner-vec</t>
-  </si>
-  <si>
-    <t>result-Goods-Based-Quality-vec</t>
-  </si>
-  <si>
-    <t>result-Customer-Based-Quality-vec</t>
-  </si>
-  <si>
-    <t>result-CitationNetwork-2nd-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContextSimilarityNetwork-Cocited-TFIDF-vec</t>
-  </si>
-  <si>
-    <t>result-Customer-Based-Balance-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContextSimilarityNetwork-Cocited-Word2vec-vec</t>
-  </si>
-  <si>
-    <t>result-Goods-Based-Quantity-vec</t>
-  </si>
-  <si>
-    <t>result-document2vec-Word2vec</t>
-  </si>
-  <si>
-    <t>result-CocitedNetwork-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContextSimilarityNetwork-Cocited-Para2vec-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext-DocumentSimilarityNetwork-target-vec</t>
-  </si>
-  <si>
-    <t>result-document2vec-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -145,30 +160,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,8 +189,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" customWidth="1"/>
+    <col min="1" max="1" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -506,28 +510,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.6183000000000002E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.104618</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.15928400000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.22337399999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.32233699999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.42318600000000001</v>
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.5607999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.9538000000000006E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.139491</v>
+      </c>
+      <c r="F2">
+        <v>0.240339</v>
+      </c>
+      <c r="G2">
+        <v>0.32987699999999998</v>
       </c>
       <c r="H2">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="I2">
         <v>1061</v>
@@ -535,28 +539,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="C3">
         <v>4.3354999999999998E-2</v>
       </c>
-      <c r="C3">
-        <v>7.9171000000000005E-2</v>
-      </c>
       <c r="D3">
-        <v>0.118756</v>
+        <v>6.5032999999999994E-2</v>
       </c>
       <c r="E3">
-        <v>0.17907600000000001</v>
+        <v>0.11404300000000001</v>
       </c>
       <c r="F3">
-        <v>0.262959</v>
+        <v>0.19698399999999999</v>
       </c>
       <c r="G3">
-        <v>0.33270499999999997</v>
+        <v>0.27992499999999998</v>
       </c>
       <c r="H3">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="I3">
         <v>1061</v>
@@ -564,28 +568,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>4.147E-2</v>
+        <v>2.2620000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>7.8228000000000006E-2</v>
+        <v>5.0895000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>0.118756</v>
+        <v>8.3882999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>0.18001900000000001</v>
+        <v>0.13666400000000001</v>
       </c>
       <c r="F4">
-        <v>0.30442999999999998</v>
+        <v>0.236569</v>
       </c>
       <c r="G4">
-        <v>0.40056599999999998</v>
+        <v>0.30348700000000001</v>
       </c>
       <c r="H4">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="I4">
         <v>1061</v>
@@ -593,57 +597,57 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>3.6757999999999999E-2</v>
+        <v>3.2044999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>7.4457999999999996E-2</v>
+        <v>5.2780000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.107446</v>
+        <v>9.7077999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>0.15551400000000001</v>
+        <v>0.144204</v>
       </c>
       <c r="F5">
-        <v>0.23374200000000001</v>
+        <v>0.22054699999999999</v>
       </c>
       <c r="G5">
         <v>0.29877500000000001</v>
       </c>
       <c r="H5">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>4.7130000000000002E-3</v>
-      </c>
-      <c r="C6">
-        <v>6.5979999999999997E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.0368E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.3195E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.7908E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.1677999999999999E-2</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.1838000000000002E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.8962999999999995E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15551400000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22431699999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.33647500000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.42130099999999998</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>1061</v>
@@ -651,28 +655,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.8279999999999998E-3</v>
+        <v>4.5240000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>3.7699999999999999E-3</v>
+        <v>6.5032999999999994E-2</v>
       </c>
       <c r="D7">
-        <v>4.7130000000000002E-3</v>
+        <v>8.3882999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>7.5399999999999998E-3</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="F7">
-        <v>1.3195E-2</v>
+        <v>0.18473100000000001</v>
       </c>
       <c r="G7">
-        <v>2.7333E-2</v>
+        <v>0.24410899999999999</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>1061</v>
@@ -680,28 +684,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>1.8849999999999999E-2</v>
+        <v>4.9009999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>4.0528000000000002E-2</v>
+        <v>8.8595999999999994E-2</v>
       </c>
       <c r="D8">
-        <v>6.6918000000000005E-2</v>
+        <v>0.12912299999999999</v>
       </c>
       <c r="E8">
-        <v>0.110273</v>
+        <v>0.19604099999999999</v>
       </c>
       <c r="F8">
-        <v>0.191329</v>
+        <v>0.30348700000000001</v>
       </c>
       <c r="G8">
-        <v>0.26484400000000002</v>
+        <v>0.40527800000000003</v>
       </c>
       <c r="H8">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>1061</v>
@@ -709,28 +713,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>2.8275000000000002E-2</v>
+        <v>1.4138E-2</v>
       </c>
       <c r="C9">
-        <v>5.0895000000000003E-2</v>
+        <v>2.2620000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>9.3308000000000002E-2</v>
+        <v>4.0528000000000002E-2</v>
       </c>
       <c r="E9">
-        <v>0.13383600000000001</v>
+        <v>6.6918000000000005E-2</v>
       </c>
       <c r="F9">
-        <v>0.211122</v>
+        <v>0.120641</v>
       </c>
       <c r="G9">
-        <v>0.29029199999999999</v>
+        <v>0.17907600000000001</v>
       </c>
       <c r="H9">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>1061</v>
@@ -738,28 +742,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>1.6965000000000001E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>3.5815E-2</v>
+        <v>2.1677999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>5.7493000000000002E-2</v>
+        <v>4.3354999999999998E-2</v>
       </c>
       <c r="E10">
-        <v>9.0481000000000006E-2</v>
+        <v>6.6918000000000005E-2</v>
       </c>
       <c r="F10">
+        <v>0.110273</v>
+      </c>
+      <c r="G10">
         <v>0.166824</v>
       </c>
-      <c r="G10">
-        <v>0.236569</v>
-      </c>
       <c r="H10">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>1061</v>
@@ -767,28 +771,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>1.3195E-2</v>
+        <v>1.6022999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>1.3195E-2</v>
+        <v>2.639E-2</v>
       </c>
       <c r="D11">
-        <v>1.4138E-2</v>
+        <v>4.7125E-2</v>
       </c>
       <c r="E11">
-        <v>1.6022999999999999E-2</v>
+        <v>8.4825999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>2.1677999999999999E-2</v>
+        <v>0.13760600000000001</v>
       </c>
       <c r="G11">
-        <v>2.4504999999999999E-2</v>
+        <v>0.20075399999999999</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>1061</v>
@@ -796,28 +800,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>3.2988000000000003E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>3.2988000000000003E-2</v>
+        <v>1.9793000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>3.2988000000000003E-2</v>
+        <v>3.5815E-2</v>
       </c>
       <c r="E12">
-        <v>3.2988000000000003E-2</v>
+        <v>5.7493000000000002E-2</v>
       </c>
       <c r="F12">
-        <v>3.3930000000000002E-2</v>
+        <v>0.122526</v>
       </c>
       <c r="G12">
-        <v>3.6757999999999999E-2</v>
+        <v>0.191329</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>1061</v>
@@ -825,28 +829,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>2.8279999999999998E-3</v>
+        <v>2.1677999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>2.8279999999999998E-3</v>
+        <v>5.2780000000000001E-2</v>
       </c>
       <c r="D13">
-        <v>4.7130000000000002E-3</v>
+        <v>8.7652999999999995E-2</v>
       </c>
       <c r="E13">
-        <v>4.7130000000000002E-3</v>
+        <v>0.142319</v>
       </c>
       <c r="F13">
-        <v>7.5399999999999998E-3</v>
+        <v>0.24787899999999999</v>
       </c>
       <c r="G13">
-        <v>1.3195E-2</v>
+        <v>0.331762</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="I13">
         <v>1061</v>
@@ -854,25 +858,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>1.8849999999999999E-2</v>
+        <v>1.4138E-2</v>
       </c>
       <c r="C14">
-        <v>3.1102999999999999E-2</v>
+        <v>2.4504999999999999E-2</v>
       </c>
       <c r="D14">
-        <v>6.9746000000000002E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="E14">
-        <v>0.120641</v>
+        <v>7.1631E-2</v>
       </c>
       <c r="F14">
-        <v>0.20735200000000001</v>
+        <v>0.13100800000000001</v>
       </c>
       <c r="G14">
-        <v>0.286522</v>
+        <v>0.20358200000000001</v>
       </c>
       <c r="H14">
         <v>19</v>
@@ -886,22 +890,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1.2253E-2</v>
+        <v>1.8849999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>2.3563000000000001E-2</v>
+        <v>4.4297999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>3.4873000000000001E-2</v>
+        <v>8.8595999999999994E-2</v>
       </c>
       <c r="E15">
-        <v>6.2205000000000003E-2</v>
+        <v>0.167766</v>
       </c>
       <c r="F15">
-        <v>0.116871</v>
+        <v>0.29783199999999999</v>
       </c>
       <c r="G15">
-        <v>0.165881</v>
+        <v>0.40810600000000002</v>
       </c>
       <c r="H15">
         <v>19</v>
@@ -912,115 +916,115 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2.1677999999999999E-2</v>
+        <v>5.6550000000000003E-3</v>
       </c>
       <c r="C16">
-        <v>3.9585000000000002E-2</v>
+        <v>1.6022999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>6.7861000000000005E-2</v>
+        <v>2.639E-2</v>
       </c>
       <c r="E16">
-        <v>0.120641</v>
+        <v>4.9009999999999998E-2</v>
       </c>
       <c r="F16">
-        <v>0.20735200000000001</v>
+        <v>8.0113000000000004E-2</v>
       </c>
       <c r="G16">
-        <v>0.262959</v>
+        <v>0.11404300000000001</v>
       </c>
       <c r="H16">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>1061</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1.0368E-2</v>
-      </c>
-      <c r="C17">
-        <v>2.0735E-2</v>
-      </c>
-      <c r="D17">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.639E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.0159999999999999E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="E17" s="2">
         <v>3.2988000000000003E-2</v>
       </c>
-      <c r="E17">
-        <v>5.5607999999999998E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.103676</v>
-      </c>
-      <c r="G17">
-        <v>0.16022600000000001</v>
-      </c>
-      <c r="H17">
-        <v>90</v>
-      </c>
-      <c r="I17">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>1.6022999999999999E-2</v>
-      </c>
-      <c r="C18">
-        <v>2.5447999999999998E-2</v>
-      </c>
-      <c r="D18">
-        <v>4.5240000000000002E-2</v>
-      </c>
-      <c r="E18">
-        <v>7.7285999999999994E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.120641</v>
-      </c>
-      <c r="G18">
-        <v>0.17342099999999999</v>
-      </c>
-      <c r="H18">
-        <v>90</v>
-      </c>
-      <c r="I18">
+      <c r="F17" s="2">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>46</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.885E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.885E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.8279999999999998E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.8279999999999998E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.6550000000000003E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9.4249999999999994E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>46</v>
+      </c>
+      <c r="I18" s="2">
         <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>1.0368E-2</v>
+        <v>1.9793000000000002E-2</v>
       </c>
       <c r="C19">
-        <v>1.7908E-2</v>
+        <v>4.147E-2</v>
       </c>
       <c r="D19">
-        <v>4.147E-2</v>
+        <v>6.6918000000000005E-2</v>
       </c>
       <c r="E19">
-        <v>6.7861000000000005E-2</v>
+        <v>0.117813</v>
       </c>
       <c r="F19">
-        <v>0.10084799999999999</v>
+        <v>0.210179</v>
       </c>
       <c r="G19">
-        <v>0.140434</v>
+        <v>0.282752</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="I19">
         <v>1061</v>
@@ -1028,28 +1032,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>9.4249999999999994E-3</v>
+        <v>2.7333E-2</v>
       </c>
       <c r="C20">
-        <v>2.1677999999999999E-2</v>
+        <v>5.8435000000000001E-2</v>
       </c>
       <c r="D20">
-        <v>3.7699999999999997E-2</v>
+        <v>0.104618</v>
       </c>
       <c r="E20">
-        <v>6.0319999999999999E-2</v>
+        <v>0.141376</v>
       </c>
       <c r="F20">
-        <v>0.109331</v>
+        <v>0.236569</v>
       </c>
       <c r="G20">
-        <v>0.15645600000000001</v>
+        <v>0.30348700000000001</v>
       </c>
       <c r="H20">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="I20">
         <v>1061</v>
@@ -1057,28 +1061,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>3.2044999999999997E-2</v>
+        <v>1.9793000000000002E-2</v>
       </c>
       <c r="C21">
-        <v>5.2780000000000001E-2</v>
+        <v>4.7125E-2</v>
       </c>
       <c r="D21">
-        <v>9.7077999999999998E-2</v>
+        <v>8.4825999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.144204</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="F21">
-        <v>0.22054699999999999</v>
+        <v>0.217719</v>
       </c>
       <c r="G21">
-        <v>0.29877500000000001</v>
+        <v>0.29500500000000002</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="I21">
         <v>1061</v>
@@ -1086,28 +1090,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>2.1677999999999999E-2</v>
+        <v>1.0368E-2</v>
       </c>
       <c r="C22">
-        <v>4.3354999999999998E-2</v>
+        <v>2.2620000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>7.2572999999999999E-2</v>
+        <v>3.8642999999999997E-2</v>
       </c>
       <c r="E22">
-        <v>0.121583</v>
+        <v>6.3147999999999996E-2</v>
       </c>
       <c r="F22">
-        <v>0.20452400000000001</v>
+        <v>9.8962999999999995E-2</v>
       </c>
       <c r="G22">
-        <v>0.241282</v>
+        <v>0.13195100000000001</v>
       </c>
       <c r="H22">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <v>1061</v>
@@ -1115,28 +1119,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>1.7908E-2</v>
+        <v>8.4829999999999992E-3</v>
       </c>
       <c r="C23">
-        <v>3.3930000000000002E-2</v>
+        <v>1.6965000000000001E-2</v>
       </c>
       <c r="D23">
-        <v>4.9009999999999998E-2</v>
+        <v>3.5815E-2</v>
       </c>
       <c r="E23">
-        <v>8.1998000000000001E-2</v>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="F23">
-        <v>0.13383600000000001</v>
+        <v>8.9538000000000006E-2</v>
       </c>
       <c r="G23">
-        <v>0.163054</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="H23">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="I23">
         <v>1061</v>
@@ -1144,67 +1148,125 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>1.8849999999999999E-2</v>
+        <v>3.6757999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>4.5240000000000002E-2</v>
+        <v>7.4457999999999996E-2</v>
       </c>
       <c r="D24">
-        <v>7.1631E-2</v>
+        <v>0.107446</v>
       </c>
       <c r="E24">
-        <v>0.12535299999999999</v>
+        <v>0.15551400000000001</v>
       </c>
       <c r="F24">
-        <v>0.20923700000000001</v>
+        <v>0.23374200000000001</v>
       </c>
       <c r="G24">
-        <v>0.306315</v>
+        <v>0.29877500000000001</v>
       </c>
       <c r="H24">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="I24">
         <v>1061</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4.9009999999999998E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.8595999999999994E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.12912299999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.19604099999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.30348700000000001</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.40527800000000003</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="2">
+      <c r="B25">
+        <v>4.147E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.8228000000000006E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.118756</v>
+      </c>
+      <c r="E25">
+        <v>0.18001900000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.40056599999999998</v>
+      </c>
+      <c r="H25">
+        <v>319</v>
+      </c>
+      <c r="I25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.9171000000000005E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.118756</v>
+      </c>
+      <c r="E26">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.262959</v>
+      </c>
+      <c r="G26">
+        <v>0.33270499999999997</v>
+      </c>
+      <c r="H26">
+        <v>319</v>
+      </c>
+      <c r="I26">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>4.6183000000000002E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.104618</v>
+      </c>
+      <c r="D27">
+        <v>0.15928400000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.22337399999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.32233699999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.42318600000000001</v>
+      </c>
+      <c r="H27">
+        <v>319</v>
+      </c>
+      <c r="I27">
         <v>1061</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I25">
-    <sortCondition ref="A2:A25"/>
+  <sortState ref="A2:I28">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="6240" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>result_name</t>
   </si>
@@ -56,79 +56,91 @@
     <t>result-document2vec-TF</t>
   </si>
   <si>
+    <t>result-CitationNetwork-1st-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Word2vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-TFIDF</t>
+  </si>
+  <si>
+    <t>result-Customer-Based-Quantity-vec</t>
+  </si>
+  <si>
+    <t>result-CitationNetworkBi-2nd-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-TF</t>
+  </si>
+  <si>
+    <t>result-CitationNetworkPlusCocitedNetwork-vec</t>
+  </si>
+  <si>
+    <t>result-Goods-Based-Balance-vec</t>
+  </si>
+  <si>
+    <t>result-CitationNetworkPlusCocitingNetwork-vec</t>
+  </si>
+  <si>
+    <t>result-CocitingNetwork-vec</t>
+  </si>
+  <si>
+    <t>result-Goods-Based-Quality-vec</t>
+  </si>
+  <si>
+    <t>result-Customer-Based-Quality-vec</t>
+  </si>
+  <si>
+    <t>result-CitationNetwork-2nd-vec</t>
+  </si>
+  <si>
+    <t>result-Customer-Based-Balance-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-Word2vec-vec</t>
+  </si>
+  <si>
+    <t>result-Goods-Based-Quantity-vec</t>
+  </si>
+  <si>
+    <t>result-document2vec-Word2vec</t>
+  </si>
+  <si>
+    <t>result-CocitedNetwork-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-Para2vec-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext-DocumentSimilarityNetwork-target-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContext-DocumentSimilarityNetwork-owner-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-TFIDF-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-document2vec-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>result-document2vec-TFIDF</t>
-  </si>
-  <si>
-    <t>result-CitationNetwork-1st-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext2Document-Word2vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext2Document-TFIDF</t>
-  </si>
-  <si>
-    <t>result-Customer-Based-Quantity-vec</t>
-  </si>
-  <si>
-    <t>result-CitationNetworkBi-2nd-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext2Document-TF</t>
-  </si>
-  <si>
-    <t>result-document2vec-Para2vec</t>
-  </si>
-  <si>
-    <t>result-CitationNetworkPlusCocitedNetwork-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result-CitationContext2Document-Para2vec</t>
-  </si>
-  <si>
-    <t>result-Goods-Based-Balance-vec</t>
-  </si>
-  <si>
-    <t>result-CitationNetworkPlusCocitingNetwork-vec</t>
-  </si>
-  <si>
-    <t>result-CocitingNetwork-vec</t>
-  </si>
-  <si>
-    <t>result-Goods-Based-Quality-vec</t>
-  </si>
-  <si>
-    <t>result-Customer-Based-Quality-vec</t>
-  </si>
-  <si>
-    <t>result-CitationNetwork-2nd-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result-CitationContextSimilarityNetwork-Cocited-TFIDF-vec</t>
-  </si>
-  <si>
-    <t>result-Customer-Based-Balance-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContextSimilarityNetwork-Cocited-Word2vec-vec</t>
-  </si>
-  <si>
-    <t>result-Goods-Based-Quantity-vec</t>
-  </si>
-  <si>
-    <t>result-document2vec-Word2vec</t>
-  </si>
-  <si>
-    <t>result-CocitedNetwork-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result-CitationContextSimilarityNetwork-Cocited-Para2vec-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext-DocumentSimilarityNetwork-target-vec</t>
-  </si>
-  <si>
-    <t>result-CitationContext-DocumentSimilarityNetwork-owner-vec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -510,7 +522,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>2.1677999999999999E-2</v>
@@ -539,7 +551,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2.2620000000000001E-2</v>
@@ -568,7 +580,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2.2620000000000001E-2</v>
@@ -597,7 +609,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>3.2044999999999997E-2</v>
@@ -626,7 +638,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>5.1838000000000002E-2</v>
@@ -684,7 +696,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>4.9009999999999998E-2</v>
@@ -713,7 +725,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1.4138E-2</v>
@@ -742,7 +754,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1.1310000000000001E-2</v>
@@ -771,7 +783,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1.6022999999999999E-2</v>
@@ -800,7 +812,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1.1310000000000001E-2</v>
@@ -829,7 +841,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>2.1677999999999999E-2</v>
@@ -858,7 +870,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1.4138E-2</v>
@@ -887,7 +899,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1.8849999999999999E-2</v>
@@ -916,7 +928,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>5.6550000000000003E-3</v>
@@ -945,7 +957,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>2.639E-2</v>
@@ -974,7 +986,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>1.885E-3</v>
@@ -1003,7 +1015,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1.9793000000000002E-2</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2.7333E-2</v>
@@ -1061,7 +1073,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>1.9793000000000002E-2</v>
@@ -1090,7 +1102,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1.0368E-2</v>
@@ -1119,7 +1131,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>8.4829999999999992E-3</v>
@@ -1148,7 +1160,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>3.6757999999999999E-2</v>
@@ -1177,7 +1189,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>4.147E-2</v>
@@ -1206,7 +1218,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>4.3354999999999998E-2</v>
@@ -1235,7 +1247,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>4.6183000000000002E-2</v>
@@ -1259,6 +1271,528 @@
         <v>319</v>
       </c>
       <c r="I27">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="C48">
+        <v>5.5607999999999998E-2</v>
+      </c>
+      <c r="D48">
+        <v>8.9538000000000006E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.139491</v>
+      </c>
+      <c r="F48">
+        <v>0.240339</v>
+      </c>
+      <c r="G48">
+        <v>0.32987699999999998</v>
+      </c>
+      <c r="H48">
+        <v>248</v>
+      </c>
+      <c r="I48">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.5032999999999994E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.19698399999999999</v>
+      </c>
+      <c r="G49">
+        <v>0.27992499999999998</v>
+      </c>
+      <c r="H49">
+        <v>248</v>
+      </c>
+      <c r="I49">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>5.0895000000000003E-2</v>
+      </c>
+      <c r="D50">
+        <v>8.3882999999999999E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.13666400000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.236569</v>
+      </c>
+      <c r="G50">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="H50">
+        <v>248</v>
+      </c>
+      <c r="I50">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>1.4138E-2</v>
+      </c>
+      <c r="C51">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <v>4.0528000000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>6.6918000000000005E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.120641</v>
+      </c>
+      <c r="G51">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="H51">
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="C52">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.6918000000000005E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.110273</v>
+      </c>
+      <c r="G52">
+        <v>0.166824</v>
+      </c>
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="I52">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>1.6022999999999999E-2</v>
+      </c>
+      <c r="C53">
+        <v>2.639E-2</v>
+      </c>
+      <c r="D53">
+        <v>4.7125E-2</v>
+      </c>
+      <c r="E53">
+        <v>8.4825999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.13760600000000001</v>
+      </c>
+      <c r="G53">
+        <v>0.20075399999999999</v>
+      </c>
+      <c r="H53">
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="D54">
+        <v>3.5815E-2</v>
+      </c>
+      <c r="E54">
+        <v>5.7493000000000002E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.122526</v>
+      </c>
+      <c r="G54">
+        <v>0.191329</v>
+      </c>
+      <c r="H54">
+        <v>90</v>
+      </c>
+      <c r="I54">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="C55">
+        <v>5.2780000000000001E-2</v>
+      </c>
+      <c r="D55">
+        <v>8.7652999999999995E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.142319</v>
+      </c>
+      <c r="F55">
+        <v>0.24787899999999999</v>
+      </c>
+      <c r="G55">
+        <v>0.331762</v>
+      </c>
+      <c r="H55">
+        <v>248</v>
+      </c>
+      <c r="I55">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>1.4138E-2</v>
+      </c>
+      <c r="C56">
+        <v>2.4504999999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="E56">
+        <v>7.1631E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.13100800000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.20358200000000001</v>
+      </c>
+      <c r="H56">
+        <v>19</v>
+      </c>
+      <c r="I56">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>4.4297999999999997E-2</v>
+      </c>
+      <c r="D57">
+        <v>8.8595999999999994E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.167766</v>
+      </c>
+      <c r="F57">
+        <v>0.29783199999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.40810600000000002</v>
+      </c>
+      <c r="H57">
+        <v>19</v>
+      </c>
+      <c r="I57">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>5.6550000000000003E-3</v>
+      </c>
+      <c r="C58">
+        <v>1.6022999999999999E-2</v>
+      </c>
+      <c r="D58">
+        <v>2.639E-2</v>
+      </c>
+      <c r="E58">
+        <v>4.9009999999999998E-2</v>
+      </c>
+      <c r="F58">
+        <v>8.0113000000000004E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="H58">
+        <v>19</v>
+      </c>
+      <c r="I58">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2.639E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.0159999999999999E-2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3.2988000000000003E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>46</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.885E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.885E-3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2.8279999999999998E-3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.8279999999999998E-3</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5.6550000000000003E-3</v>
+      </c>
+      <c r="G60" s="2">
+        <v>9.4249999999999994E-3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>46</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="C61">
+        <v>4.147E-2</v>
+      </c>
+      <c r="D61">
+        <v>6.6918000000000005E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.117813</v>
+      </c>
+      <c r="F61">
+        <v>0.210179</v>
+      </c>
+      <c r="G61">
+        <v>0.282752</v>
+      </c>
+      <c r="H61">
+        <v>335</v>
+      </c>
+      <c r="I61">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>2.7333E-2</v>
+      </c>
+      <c r="C62">
+        <v>5.8435000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.104618</v>
+      </c>
+      <c r="E62">
+        <v>0.141376</v>
+      </c>
+      <c r="F62">
+        <v>0.236569</v>
+      </c>
+      <c r="G62">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="H62">
+        <v>335</v>
+      </c>
+      <c r="I62">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="C63">
+        <v>4.7125E-2</v>
+      </c>
+      <c r="D63">
+        <v>8.4825999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.12441099999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.217719</v>
+      </c>
+      <c r="G63">
+        <v>0.29500500000000002</v>
+      </c>
+      <c r="H63">
+        <v>335</v>
+      </c>
+      <c r="I63">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>1.0368E-2</v>
+      </c>
+      <c r="C64">
+        <v>2.2620000000000001E-2</v>
+      </c>
+      <c r="D64">
+        <v>3.8642999999999997E-2</v>
+      </c>
+      <c r="E64">
+        <v>6.3147999999999996E-2</v>
+      </c>
+      <c r="F64">
+        <v>9.8962999999999995E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.13195100000000001</v>
+      </c>
+      <c r="H64">
+        <v>61</v>
+      </c>
+      <c r="I64">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>8.4829999999999992E-3</v>
+      </c>
+      <c r="C65">
+        <v>1.6965000000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>3.5815E-2</v>
+      </c>
+      <c r="E65">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="F65">
+        <v>8.9538000000000006E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.12441099999999999</v>
+      </c>
+      <c r="H65">
+        <v>54</v>
+      </c>
+      <c r="I65">
         <v>1061</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="920" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>result_name</t>
   </si>
@@ -141,6 +143,272 @@
   </si>
   <si>
     <t>result-CitationContextSimilarityNetwork-Cocited-Para2vec-vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContext-DocumentSimilarityNetwork-owner-vec</t>
+  </si>
+  <si>
+    <t>result-CitationContextSimilarityNetwork-Cocited-TFIDF-vec</t>
+  </si>
+  <si>
+    <t>result-document2vec-Para2vec</t>
+  </si>
+  <si>
+    <t>result-document2vec-TFIDF</t>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Para2vec + CitationNetwork - rho = 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Para2vec + CitationNetwork - rho = 0.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Para2vec + CitationNetwork - rho = 0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result-CitationContext2Document-Para2vec + CitationNetwork - rho = 0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text-Based Embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good-Customer Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified Citation Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight Modified Citation Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedding Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>document2vec-TF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>document2vec-TFIDF</t>
+  </si>
+  <si>
+    <t>document2vec-Word2vec</t>
+  </si>
+  <si>
+    <t>document2vec-Para2vec</t>
+  </si>
+  <si>
+    <t>CitationContext2Document-Word2vec</t>
+  </si>
+  <si>
+    <t>CitationContext2Document-TFIDF</t>
+  </si>
+  <si>
+    <t>CitationContext2Document-TF</t>
+  </si>
+  <si>
+    <t>CitationContext2Document-Para2vec</t>
+  </si>
+  <si>
+    <t>WeightCCitedNbyContextSimiliart-Word2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightCCitedNbyContextSimiliart-TFIDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightCCitedNbyContextSimiliart-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitationNetworkPlusCocitingNetwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitationNetworkPlusCocitedNetwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CocitingNetwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CocitedNetwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitationNetworkBi-2nd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitationNetwork-2nd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitationNetwork-1st</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods-Based-Balance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods-Based-Quality</t>
+  </si>
+  <si>
+    <t>Goods-Based-Quantity</t>
+  </si>
+  <si>
+    <t>Customer-Based-Balance</t>
+  </si>
+  <si>
+    <t>Customer-Based-Quality</t>
+  </si>
+  <si>
+    <t>Customer-Based-Quantity</t>
+  </si>
+  <si>
+    <t>WeightCNbyOwnerText-ContextSimilarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightCNbyTargetText-ContextSimilarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding(rho = 0.01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding(rho = 0.02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding(rho = 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding(rho = 0.25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNITBE(rho = 0.01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNITBE(rho = 0.02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNITBE(rho = 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNITBE(rho = 0.25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE@10</t>
+  </si>
+  <si>
+    <t>RE@20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE@50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE@100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerText-ContextSim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetText-ContextSim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN+CCitedN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN+CCitingN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context2Document-Word2vec</t>
+  </si>
+  <si>
+    <t>Context2Document-Word2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context2Document-TFIDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context2Document-TF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified Citation Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context2Document-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextSim-Para2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextSim-TFIDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextSim-Word2vec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text-Based Embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight Citation Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight Co-Cited Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNInitializedbyText-BasedEmbedding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +416,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +443,116 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.85"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,17 +576,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -482,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1803,4 +2264,2920 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A92" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="62.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.639E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.9585000000000002E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6.5979999999999997E-3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.1310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.885E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.7130000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.107446</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.15551400000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.23374200000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>319</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.6757999999999999E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7.4457999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.18001900000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.40056599999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>319</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.147E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>7.8228000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.262959</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.33270499999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>319</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>7.9171000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.15928400000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.22337399999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.32233699999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.42318600000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>319</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.6183000000000002E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.104618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7.5400999999999996E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.13195100000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.216777</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>335</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.8068E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.8020999999999997E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.14985899999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.23185700000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.310085</v>
+      </c>
+      <c r="F9" s="3">
+        <v>335</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5.4664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.0688000000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.12535299999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.20735200000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>335</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.6022999999999999E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.9905999999999995E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.168709</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.41941600000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5.3723E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.20358200000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.282752</v>
+      </c>
+      <c r="F12" s="3">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.8068E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.110273</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.20452400000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.28463699999999997</v>
+      </c>
+      <c r="F13" s="3">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.7333E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4.147E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.4251000000000001E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.163996</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.29123500000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.39867999999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.5240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.8803000000000003E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.13383600000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.211122</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.2253E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.7652999999999995E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.14891599999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.25070700000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.331762</v>
+      </c>
+      <c r="F16" s="3">
+        <v>248</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.9952999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.9378E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.18096100000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.508E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2.3563000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.4457999999999996E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.13006599999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.194156</v>
+      </c>
+      <c r="F18" s="3">
+        <v>90</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3.0159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.2205000000000003E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.166824</v>
+      </c>
+      <c r="F19" s="3">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K19" s="3">
+        <v>9.4249999999999994E-3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.0735E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.8642999999999997E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.17719099999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>90</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.508E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2.4504999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.12912299999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.19604099999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.40527800000000003</v>
+      </c>
+      <c r="F21" s="3">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.9009999999999998E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>8.8595999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7.7762999999999999E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11050500000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.16916800000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.23192399999999999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>733</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.0927999999999999E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5.8663E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.16022600000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.23279900000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.33459</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.42318600000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5.3723E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.102733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1061</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7.9171000000000005E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.13760600000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.22997200000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>248</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2.5447999999999998E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6.5032999999999994E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.19698399999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>248</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8.6710999999999996E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.145146</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.241282</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.34118799999999999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>248</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>5.4664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K36" s="3">
+        <v>4.0528000000000002E-2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.106503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.107446</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.15551400000000001</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.23374200000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>319</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K38" s="3">
+        <v>3.6757999999999999E-2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>7.4457999999999996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.18001900000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.40056599999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>319</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K39" s="3">
+        <v>4.147E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>7.8228000000000006E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.262959</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.33270499999999997</v>
+      </c>
+      <c r="F40" s="3">
+        <v>319</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>7.9171000000000005E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.15928400000000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.22337399999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.32233699999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.42318600000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>319</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4.6183000000000002E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.104618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.12912299999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.19604099999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.40527800000000003</v>
+      </c>
+      <c r="F42" s="3">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K42" s="3">
+        <v>4.9009999999999998E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>8.8595999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
+        <v>7.7762999999999999E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.11050500000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.16916800000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.23192399999999999</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16</v>
+      </c>
+      <c r="G43" s="3">
+        <v>733</v>
+      </c>
+      <c r="K43" s="3">
+        <v>4.0927999999999999E-2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5.8663E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.16022600000000001</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.23279900000000001</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.33459</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.42318600000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>22</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5.3723E-2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.102733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>9.7077999999999998E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.144204</v>
+      </c>
+      <c r="D45">
+        <v>0.22054699999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>1061</v>
+      </c>
+      <c r="K45">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="L45">
+        <v>5.2780000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.9171000000000005E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.13760600000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.22997200000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="F47" s="3">
+        <v>248</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2.5447999999999998E-2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6.5032999999999994E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.19698399999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+      <c r="F48" s="3">
+        <v>248</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="L48" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.6710999999999996E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.145146</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.241282</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.34118799999999999</v>
+      </c>
+      <c r="F49" s="3">
+        <v>248</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5.4664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7.4457999999999996E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.13006599999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.194156</v>
+      </c>
+      <c r="F50" s="3">
+        <v>90</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>3.0159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6.2205000000000003E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.166824</v>
+      </c>
+      <c r="F51" s="3">
+        <v>90</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K51" s="3">
+        <v>9.4249999999999994E-3</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2.0735E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3.8642999999999997E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.17719099999999999</v>
+      </c>
+      <c r="F52" s="3">
+        <v>90</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.508E-2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2.4504999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.639E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3.9585000000000002E-2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>54</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K54" s="3">
+        <v>6.5979999999999997E-3</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1.1310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>61</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1.885E-3</v>
+      </c>
+      <c r="L55" s="3">
+        <v>4.7130000000000002E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7.5400999999999996E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.13195100000000001</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.216777</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>335</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4.8068E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="7">
+        <v>9.8020999999999997E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.14985899999999999</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.23185700000000001</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.310085</v>
+      </c>
+      <c r="F57" s="3">
+        <v>335</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>5.4664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3">
+        <v>7.0688000000000001E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.12535299999999999</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.20735200000000001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+      <c r="F58" s="3">
+        <v>335</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1.6022999999999999E-2</v>
+      </c>
+      <c r="L58" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K60" s="3">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5.3723E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9.9905999999999995E-2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.168709</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.41941600000000001</v>
+      </c>
+      <c r="F61" s="3">
+        <v>19</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="L61" s="3">
+        <v>4.8068E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.20358200000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.282752</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2.7333E-2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4.147E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.110273</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.20452400000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.28463699999999997</v>
+      </c>
+      <c r="F63" s="3">
+        <v>19</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="L63" s="3">
+        <v>4.5240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="3">
+        <v>9.4251000000000001E-2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.163996</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.29123500000000002</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.39867999999999998</v>
+      </c>
+      <c r="F64" s="3">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1.2253E-2</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6.8803000000000003E-2</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.13383600000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.211122</v>
+      </c>
+      <c r="F65" s="3">
+        <v>19</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2.1677999999999999E-2</v>
+      </c>
+      <c r="L65" s="3">
+        <v>4.9952999999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8.7652999999999995E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.14891599999999999</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.25070700000000001</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.331762</v>
+      </c>
+      <c r="F66" s="3">
+        <v>248</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1061</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1.508E-2</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2.3563000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5.9378E-2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.18096100000000001</v>
+      </c>
+      <c r="F67" s="3">
+        <v>90</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.16211100000000001</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.25636199999999998</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.39490999999999998</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.50706899999999999</v>
+      </c>
+      <c r="F71" s="9">
+        <v>19</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0.170594</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0.27804000000000001</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.41376099999999999</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.52686100000000002</v>
+      </c>
+      <c r="F72" s="9">
+        <v>19</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="9">
+        <v>0.165881</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0.26955699999999999</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.41658800000000001</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.53251599999999999</v>
+      </c>
+      <c r="F73" s="9">
+        <v>19</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="9">
+        <v>0.13100800000000001</v>
+      </c>
+      <c r="C74" s="9">
+        <v>0.217719</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.37983</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0.49575900000000001</v>
+      </c>
+      <c r="F74" s="9">
+        <v>19</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="3">
+        <v>7.7762999999999999E-2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.11050500000000001</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.16916800000000001</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.23192399999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.16022600000000001</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.23279900000000001</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.33459</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.42318600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86">
+        <v>9.7077999999999998E-2</v>
+      </c>
+      <c r="C86">
+        <v>0.144204</v>
+      </c>
+      <c r="D86">
+        <v>0.22054699999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.29877500000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.12912299999999999</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.19604099999999999</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.40527800000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.107446</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.15551400000000001</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.23374200000000001</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.18001900000000001</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.40056599999999998</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I89" s="23">
+        <v>0.107</v>
+      </c>
+      <c r="J89" s="23">
+        <v>0.156</v>
+      </c>
+      <c r="K89" s="23">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L89" s="23">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.118756</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.262959</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.33270499999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.15928400000000001</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.22337399999999999</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.32233699999999998</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.42318600000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9.9905999999999995E-2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.168709</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.41941600000000001</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.20358200000000001</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.282752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="3">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.110273</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.20452400000000001</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.28463699999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8.7652999999999995E-2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.14891599999999999</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.25070700000000001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.331762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5.9378E-2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.18096100000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="3">
+        <v>9.4251000000000001E-2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.163996</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.29123500000000002</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.39867999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>6.8803000000000003E-2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.13383600000000001</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.211122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="3">
+        <v>7.5400999999999996E-2</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.13195100000000001</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.216777</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.29877500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="7">
+        <v>9.8020999999999997E-2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.14985899999999999</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.23185700000000001</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.310085</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="3">
+        <v>7.0688000000000001E-2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.12535299999999999</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.20735200000000001</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2.639E-2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3.9585000000000002E-2</v>
+      </c>
+      <c r="E104" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="E105" s="3">
+        <v>4.3354999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="3">
+        <v>7.9171000000000005E-2</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.13760600000000001</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.22997200000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.30442999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6.5032999999999994E-2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.19698399999999999</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.27898200000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="1">
+        <v>8.6710999999999996E-2</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.145146</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.241282</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.34118799999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4.4297999999999997E-2</v>
+      </c>
+      <c r="C110" s="3">
+        <v>7.4457999999999996E-2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.13006599999999999</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.194156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>6.2205000000000003E-2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.109331</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.166824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="3">
+        <v>3.8642999999999997E-2</v>
+      </c>
+      <c r="C112" s="3">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.117813</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.17719099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="9">
+        <v>0.16211100000000001</v>
+      </c>
+      <c r="C114" s="9">
+        <v>0.25636199999999998</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0.39490999999999998</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0.50706899999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="9">
+        <v>0.170594</v>
+      </c>
+      <c r="C115" s="9">
+        <v>0.27804000000000001</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0.41376099999999999</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0.52686100000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="9">
+        <v>0.165881</v>
+      </c>
+      <c r="C116" s="9">
+        <v>0.26955699999999999</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0.41658800000000001</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0.53251599999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="9">
+        <v>0.13100800000000001</v>
+      </c>
+      <c r="C117" s="9">
+        <v>0.217719</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0.37983</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.49575900000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="6" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7.7762999999999999E-2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.11050500000000001</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.16916800000000001</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.23192399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.16022600000000001</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.23279900000000001</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.33459</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.42318600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="17">
+        <v>9.7077999999999998E-2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.144204</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.22054699999999999</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.29877500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.12912299999999999</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.19604099999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.40527800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.107446</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.15551400000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.23374200000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.29877500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.118756</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.18001900000000001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.30442999999999998</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.40056599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.118756</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.17907600000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.262959</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.33270499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.15928400000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.22337399999999999</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.32233699999999998</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.42318600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18">
+        <v>9.9905999999999995E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.168709</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.30348700000000001</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.41941600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.117813</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.20358200000000001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.282752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15">
+        <v>7.3515999999999998E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.110273</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.20452400000000001</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.28463699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="15">
+        <v>8.7652999999999995E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.14891599999999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.25070700000000001</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.331762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3.4873000000000001E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5.9378E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.11404300000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.18096100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="15">
+        <v>9.4251000000000001E-2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.163996</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.29123500000000002</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.39867999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>6.8803000000000003E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.13383600000000001</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.211122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="15">
+        <v>7.5400999999999996E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.13195100000000001</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.216777</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.29877500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="17">
+        <v>9.8020999999999997E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.14985899999999999</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.23185700000000001</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.310085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="15">
+        <v>7.0688000000000001E-2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.12535299999999999</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.20735200000000001</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.27898200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.7908E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2.639E-2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3.9585000000000002E-2</v>
+      </c>
+      <c r="F20" s="15">
+        <v>6.4089999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1.9793000000000002E-2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4.3354999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.9171000000000005E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.13760600000000001</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.22997200000000001</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.30442999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="15">
+        <v>6.5032999999999994E-2</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.109331</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.19698399999999999</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.27898200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="18">
+        <v>8.6710999999999996E-2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.145146</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.241282</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.34118799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4.4297999999999997E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <v>7.4457999999999996E-2</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.13006599999999999</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.194156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="D26" s="15">
+        <v>6.2205000000000003E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.109331</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.166824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3.8642999999999997E-2</v>
+      </c>
+      <c r="D27" s="15">
+        <v>6.4089999999999994E-2</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.117813</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.17719099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.16211100000000001</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.25636199999999998</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.39490999999999998</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.50706899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.170594</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.27804000000000001</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.41376099999999999</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.52686100000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.165881</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.26955699999999999</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.41658800000000001</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.53251599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.13100800000000001</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.217719</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.37983</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.49575900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D43" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D44" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D45" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D46" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D47" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>